--- a/Excel_Practice_Interview.xlsx
+++ b/Excel_Practice_Interview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk977\OneDrive\Desktop\Excel Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27D686-9532-44A2-95A1-C43F172ABD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412C6D5E-85FC-4CC1-9A86-38DE6D881878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,19 +18,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$J$11</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">Sheet2!$A$16:$J$17</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet3!$A$15:$J$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Sheet2!$M$31:$V$31</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet3!$A$21:$J$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="52">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -171,13 +174,28 @@
   </si>
   <si>
     <t>Age_group</t>
+  </si>
+  <si>
+    <t>bonus amount</t>
+  </si>
+  <si>
+    <t>net salery</t>
+  </si>
+  <si>
+    <t>employee id</t>
+  </si>
+  <si>
+    <t>salery</t>
+  </si>
+  <si>
+    <t>vlookup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +211,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +231,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,11 +424,178 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -410,6 +609,232 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -444,225 +869,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -775,19 +981,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2255,92 +2449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F1A4B7C-0195-4AEF-BFD8-A724EA9D0323}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="M15:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="11">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total_Sales" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="3" filterVal="3"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{823194D7-4E8E-4DCC-B80E-48B22C0196BC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{823194D7-4E8E-4DCC-B80E-48B22C0196BC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M2:O7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0" countASubtotal="1">
@@ -2437,20 +2546,113 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F1A4B7C-0195-4AEF-BFD8-A724EA9D0323}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="M15:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="11">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total_Sales" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="3" filterVal="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77C3F337-8C52-4F16-90E5-04E5BB30CE83}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:J11" xr:uid="{CB1C08F4-30F6-4F14-882E-3D618D1567CD}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F930670B-C28E-4BEA-A6C4-ACB88922B6DC}" name="Employee_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{AEEFC81E-9847-4278-A1F3-1B1C3DBA9693}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{E26B434D-32C4-45AB-AE99-FF5A7C18E320}" name="Department" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{743F6BAF-A7EC-46A6-8A95-E641D851DBEC}" name="Joining_Date" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B456EBDC-1D68-4C54-B9F6-DCA80C85FE2F}" name="Salary" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{949D6837-4F07-4F1E-A79B-BE20468B9699}" name="Bonus %" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F62CE530-72DD-4336-B27D-D408D30C8454}" name="Total_Sales" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{06389E6A-1C17-4EAC-912C-9B066472F858}" name="Rating" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{40D4C213-91BF-48CE-BFAB-5F3611E58A73}" name="Location" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{CF9F535A-46E4-4AB9-B755-3FCACDF06457}" name="Age" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77C3F337-8C52-4F16-90E5-04E5BB30CE83}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <sortState ref="A2:J11">
+    <sortCondition ref="E1:E11"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F930670B-C28E-4BEA-A6C4-ACB88922B6DC}" name="Employee_ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{AEEFC81E-9847-4278-A1F3-1B1C3DBA9693}" name="Name" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E26B434D-32C4-45AB-AE99-FF5A7C18E320}" name="Department" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{743F6BAF-A7EC-46A6-8A95-E641D851DBEC}" name="Joining_Date" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B456EBDC-1D68-4C54-B9F6-DCA80C85FE2F}" name="Salary" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{949D6837-4F07-4F1E-A79B-BE20468B9699}" name="Bonus %" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F62CE530-72DD-4336-B27D-D408D30C8454}" name="Total_Sales" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{06389E6A-1C17-4EAC-912C-9B066472F858}" name="Rating" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{40D4C213-91BF-48CE-BFAB-5F3611E58A73}" name="Location" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{CF9F535A-46E4-4AB9-B755-3FCACDF06457}" name="Age" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{556C1930-56E2-4330-842E-A0987DAFF5DA}" name="bonus amount" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{7BD61C25-6D2A-4252-96C5-DCF8C6F43278}" name="net salery" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2778,10 +2980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C57D99B-99C0-4A02-A6BF-20B4E8D0D46A}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,9 +2998,11 @@
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2829,8 +3033,14 @@
       <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>101</v>
       </c>
@@ -2861,304 +3071,623 @@
       <c r="J2" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="20">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>5000</v>
+      </c>
+      <c r="L2" s="20">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2">
-        <v>60000</v>
+        <v>51000</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="9">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>5100</v>
+      </c>
+      <c r="L3" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>52000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>220000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>250000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="J4" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>5200</v>
+      </c>
+      <c r="L4" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="F5" s="2">
         <v>8</v>
       </c>
       <c r="G5" s="2">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>4320</v>
+      </c>
+      <c r="L5" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>55000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J6" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>52000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <v>220000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>4400</v>
+      </c>
+      <c r="L6" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>61000</v>
+        <v>60000</v>
       </c>
       <c r="F7" s="2">
         <v>12</v>
       </c>
       <c r="G7" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>7200</v>
+      </c>
+      <c r="L7" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>61000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
         <v>160000</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="K8" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>7320</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>68320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>62000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>155000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="9">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>7440</v>
+      </c>
+      <c r="L9" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>69440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
-        <v>78000</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F10" s="2">
         <v>15</v>
       </c>
-      <c r="G8" s="2">
-        <v>270000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2">
-        <v>54000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>120000</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2">
-        <v>51000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
       <c r="G10" s="2">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>11250</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="11">
-        <v>62000</v>
+        <v>78000</v>
       </c>
       <c r="F11" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" s="11">
-        <v>155000</v>
+        <v>270000</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="12">
+        <v>27</v>
+      </c>
+      <c r="K11" s="11">
+        <f>Table1[[#This Row],[Salary]]*Table1[[#This Row],[Bonus %]]/100</f>
+        <v>11700</v>
+      </c>
+      <c r="L11" s="11">
+        <f>Table1[[#This Row],[Salary]]+Table1[[#This Row],[bonus amount]]</f>
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="M18">
+        <f>VLOOKUP(L18,Table1[#All],5,FALSE)</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>105</v>
+      </c>
+      <c r="M19" t="str">
+        <f>VLOOKUP(L19,Table1[#All],3,FALSE)</f>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="9">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>61000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>160000</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2">
+        <v>62000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>155000</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="9">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J11">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($G2&gt;=200000,$H2="A")</formula>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$E2&gt;=60000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>200000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>150000</formula>
+      <formula>200000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>150000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3168,7 +3697,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -4514,7 +5043,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND($G2&gt;=200000,$H2="A")</formula>
     </cfRule>
   </conditionalFormatting>
